--- a/exercicios/1.4-exercicio-optus/Modelagem/Modelagem fisica.xlsx
+++ b/exercicios/1.4-exercicio-optus/Modelagem/Modelagem fisica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\clone\senai_sprint1_bd\exercicios\1.4-exercicio-optus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\clone\senai_sprint1_bd\exercicios\1.4-exercicio-optus\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B399453-BFE8-45D1-A4A6-A4D990A4D3B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6B6379-9F06-40E2-B914-24359B681FE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{C0F36909-CE82-4830-989C-73DE450E717B}"/>
   </bookViews>
@@ -161,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -184,6 +184,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -191,10 +202,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -206,6 +213,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -521,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC5A940-8CE1-48B3-9397-C75E8F76035C}">
-  <dimension ref="B2:M13"/>
+  <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,250 +549,252 @@
     <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>1234</v>
       </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>3242</v>
       </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="7">
-        <v>2</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="K5" s="5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>4321</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>3</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>3</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K7" s="7">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K7" s="5">
         <v>4</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="M7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>3</v>
       </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
         <v>4</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>3</v>
       </c>
     </row>

--- a/exercicios/1.4-exercicio-optus/Modelagem/Modelagem fisica.xlsx
+++ b/exercicios/1.4-exercicio-optus/Modelagem/Modelagem fisica.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\clone\senai_sprint1_bd\exercicios\1.4-exercicio-optus\Modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/796e2d2ae89cf7aa/Área de Trabalho/Senai/2T/senai_sprint1_bd/exercicios/1.4-exercicio-optus/Modelagem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6B6379-9F06-40E2-B914-24359B681FE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2F6B6379-9F06-40E2-B914-24359B681FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55A063CE-FA46-4BA3-B9E6-ABF427F00B53}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{C0F36909-CE82-4830-989C-73DE450E717B}"/>
+    <workbookView xWindow="16284" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{C0F36909-CE82-4830-989C-73DE450E717B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>usuario</t>
   </si>
@@ -87,9 +87,6 @@
     <t>idAlbum</t>
   </si>
   <si>
-    <t>nomeAlbum</t>
-  </si>
-  <si>
     <t>Eletric</t>
   </si>
   <si>
@@ -124,13 +121,40 @@
   </si>
   <si>
     <t>sertanejo</t>
+  </si>
+  <si>
+    <t>titulo</t>
+  </si>
+  <si>
+    <t>dataLancamento</t>
+  </si>
+  <si>
+    <t>localizacao</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Londres</t>
+  </si>
+  <si>
+    <t>Minas Gerais</t>
+  </si>
+  <si>
+    <t>Nova York</t>
+  </si>
+  <si>
+    <t>minutosDuracao</t>
+  </si>
+  <si>
+    <t>disponibilidade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +169,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="3">
@@ -161,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,23 +213,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,7 +234,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -532,24 +552,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC5A940-8CE1-48B3-9397-C75E8F76035C}">
-  <dimension ref="B2:O13"/>
+  <dimension ref="B2:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -566,8 +590,12 @@
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -593,15 +621,25 @@
         <v>19</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -624,16 +662,28 @@
         <v>15</v>
       </c>
       <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="8">
+        <v>44427</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="9">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -656,16 +706,28 @@
         <v>16</v>
       </c>
       <c r="K5" s="5">
-        <v>2</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="8">
+        <v>44428</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="9">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -688,77 +750,101 @@
         <v>17</v>
       </c>
       <c r="K6" s="5">
+        <v>11</v>
+      </c>
+      <c r="L6" s="5">
         <v>3</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="8">
+        <v>44429</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="9">
+        <v>320</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K7" s="5">
+        <v>12</v>
+      </c>
+      <c r="L7" s="5">
+        <v>2</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="K7" s="5">
-        <v>4</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="N7" s="8">
+        <v>44430</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="9">
+        <v>245</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="M7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -767,15 +853,15 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -784,27 +870,38 @@
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:M2"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="K2:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{83DC7D7E-B238-447B-86EE-D1725D772BBC}"/>
@@ -812,5 +909,6 @@
     <hyperlink ref="E6" r:id="rId3" xr:uid="{708D0BDC-247E-4FCC-9E2B-16F5D16DBDC7}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/exercicios/1.4-exercicio-optus/Modelagem/Modelagem fisica.xlsx
+++ b/exercicios/1.4-exercicio-optus/Modelagem/Modelagem fisica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/796e2d2ae89cf7aa/Área de Trabalho/Senai/2T/senai_sprint1_bd/exercicios/1.4-exercicio-optus/Modelagem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2F6B6379-9F06-40E2-B914-24359B681FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55A063CE-FA46-4BA3-B9E6-ABF427F00B53}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2F6B6379-9F06-40E2-B914-24359B681FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F242BB63-8D93-432D-8E01-D57E20D44BE5}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{C0F36909-CE82-4830-989C-73DE450E717B}"/>
   </bookViews>
@@ -231,12 +231,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -555,7 +555,7 @@
   <dimension ref="B2:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,26 +574,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="I2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -632,7 +632,7 @@
       <c r="O3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Q3" s="4" t="s">
@@ -662,7 +662,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L4" s="5">
         <v>1</v>
@@ -670,16 +670,16 @@
       <c r="M4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>44427</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <v>80</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="8">
         <v>1</v>
       </c>
     </row>
@@ -706,7 +706,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L5" s="5">
         <v>1</v>
@@ -714,16 +714,16 @@
       <c r="M5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>44428</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <v>145</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="8">
         <v>1</v>
       </c>
     </row>
@@ -750,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="K6" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L6" s="5">
         <v>3</v>
@@ -758,22 +758,22 @@
       <c r="M6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>44429</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="8">
         <v>320</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="K7" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L7" s="5">
         <v>2</v>
@@ -781,29 +781,29 @@
       <c r="M7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>44430</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="8">
         <v>245</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -861,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -878,7 +878,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -889,7 +889,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
